--- a/management/project description.xlsx
+++ b/management/project description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francesco/Documents/GitHub/Response-div-stability-competitive-communities/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7060C12F-C480-814E-BC20-38DD42902F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C783A441-0E15-1443-A3FA-1D5378291256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fundamentals" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>Authorship position</t>
   </si>
   <si>
-    <t>manuscript in preparation</t>
-  </si>
-  <si>
     <t>University of Zurich</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>Community experiment testing the predictive power of species fundamental responses for stability using imbalance</t>
   </si>
   <si>
-    <t>The imbalance of nature: The Role of Species Environmental Responses for Ecosystem Stability </t>
-  </si>
-  <si>
     <t>SNF Project 320030-231294</t>
   </si>
   <si>
@@ -242,6 +236,12 @@
   </si>
   <si>
     <t>0009-0004-9469-680X</t>
+  </si>
+  <si>
+    <t>The imbalance of nature: The Role of Species Environmental Responses for Community Stability </t>
+  </si>
+  <si>
+    <t>manuscript revised</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -683,15 +683,15 @@
         <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -699,7 +699,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -707,7 +707,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -727,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -739,7 +739,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -747,7 +747,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="9">
-        <v>45680</v>
+        <v>45797</v>
       </c>
     </row>
   </sheetData>
@@ -770,37 +770,37 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5"/>
     </row>
@@ -830,10 +830,10 @@
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>24</v>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -865,7 +865,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -911,61 +911,61 @@
         <v>OwenPetchey</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>_xlfn.CONCAT(A3,B3)</f>
         <v>FrancescoPolazzo</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>_xlfn.CONCAT(A4,B4)</f>
         <v>FrankPennekamp</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>_xlfn.CONCAT(A5,B5)</f>
         <v>TilHämmig</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
         <v>OwenPetchey</v>
       </c>
       <c r="E1048576" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1132,15 +1132,15 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1340,12 +1340,12 @@
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
